--- a/excel/M2-S3/M2-S3-MAPI.xlsx
+++ b/excel/M2-S3/M2-S3-MAPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\bulletin-espi\backend\excel\M2-S3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3664A7C-F0AB-47FE-AB27-1C7AE63F027B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C65BDB-2A22-4143-BD12-8A3DD935D50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,21 +36,6 @@
     <t>Economie immobilière II</t>
   </si>
   <si>
-    <t>UE 3 - AMENAGEMENT &amp; URBANISME</t>
-  </si>
-  <si>
-    <t>Stratégies et aménagement des territoires I</t>
-  </si>
-  <si>
-    <t>UE 4 - COMPETENCES PROFESSIONNALISANTES</t>
-  </si>
-  <si>
-    <t>Communication digitale écrite orale</t>
-  </si>
-  <si>
-    <t>Immersion professionnelle</t>
-  </si>
-  <si>
     <t>Real Estate English</t>
   </si>
   <si>
@@ -66,21 +51,6 @@
     <t>UE SPE – MAPI</t>
   </si>
   <si>
-    <t>Acquisition et dissociation du foncier</t>
-  </si>
-  <si>
-    <t>Montage des opérations tertiaires</t>
-  </si>
-  <si>
-    <t>Aménagement et commande publique</t>
-  </si>
-  <si>
-    <t>Techniques du batiment</t>
-  </si>
-  <si>
-    <t>Réhabilitation et pathologies du batiment</t>
-  </si>
-  <si>
     <t>Code Apprenant</t>
   </si>
   <si>
@@ -112,6 +82,36 @@
   </si>
   <si>
     <t>Retards</t>
+  </si>
+  <si>
+    <t>UE 3 – Aménagement &amp; Urbanisme</t>
+  </si>
+  <si>
+    <t>UE 4 – Compétences Professionnalisantes</t>
+  </si>
+  <si>
+    <t>Immersion Professionnelle</t>
+  </si>
+  <si>
+    <t>Communication Digitale, Ecrite et Orale</t>
+  </si>
+  <si>
+    <t>Stratégies et Aménagement des Territoires I</t>
+  </si>
+  <si>
+    <t>Acquisition et Dissociation du Foncier</t>
+  </si>
+  <si>
+    <t>Techniques du Bâtiment</t>
+  </si>
+  <si>
+    <t>Réhabilitation et Pathologies du Bâtiment</t>
+  </si>
+  <si>
+    <t>Aménagement et Commande Publique</t>
+  </si>
+  <si>
+    <t>Montage des Opérations Tertiaires</t>
   </si>
 </sst>
 </file>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P32"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,49 +671,49 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
@@ -726,88 +726,88 @@
     </row>
     <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">

--- a/excel/M2-S3/M2-S3-MAPI.xlsx
+++ b/excel/M2-S3/M2-S3-MAPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\bulletin-espi\backend\excel\M2-S3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C65BDB-2A22-4143-BD12-8A3DD935D50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DF56AD-2BD4-4953-B7D6-FED0994E95F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33795" yWindow="1995" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>UE 1 – Economie &amp; Gestion</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Montage des Opérations Tertiaires</t>
+  </si>
+  <si>
+    <t>Appreciations</t>
   </si>
 </sst>
 </file>
@@ -648,19 +651,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB32"/>
+  <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="19" max="19" width="33.109375" customWidth="1"/>
     <col min="20" max="20" width="31.21875" customWidth="1"/>
+    <col min="29" max="29" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,8 +727,9 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
-    </row>
-    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AC1" s="3"/>
+    </row>
+    <row r="2" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -809,8 +814,11 @@
       <c r="AB2" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC2" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -839,8 +847,9 @@
       <c r="Z3" s="12"/>
       <c r="AA3" s="10"/>
       <c r="AB3" s="12"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC3" s="12"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -869,8 +878,9 @@
       <c r="Z4" s="15"/>
       <c r="AA4" s="14"/>
       <c r="AB4" s="15"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC4" s="15"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -899,8 +909,9 @@
       <c r="Z5" s="12"/>
       <c r="AA5" s="17"/>
       <c r="AB5" s="12"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC5" s="12"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -929,8 +940,9 @@
       <c r="Z6" s="15"/>
       <c r="AA6" s="14"/>
       <c r="AB6" s="15"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC6" s="15"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -959,8 +971,9 @@
       <c r="Z7" s="12"/>
       <c r="AA7" s="17"/>
       <c r="AB7" s="12"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC7" s="12"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -989,8 +1002,9 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="14"/>
       <c r="AB8" s="15"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC8" s="15"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -1019,8 +1033,9 @@
       <c r="Z9" s="12"/>
       <c r="AA9" s="17"/>
       <c r="AB9" s="12"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC9" s="12"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -1049,8 +1064,9 @@
       <c r="Z10" s="15"/>
       <c r="AA10" s="14"/>
       <c r="AB10" s="15"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC10" s="15"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1079,8 +1095,9 @@
       <c r="Z11" s="12"/>
       <c r="AA11" s="17"/>
       <c r="AB11" s="12"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC11" s="12"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -1109,8 +1126,9 @@
       <c r="Z12" s="15"/>
       <c r="AA12" s="14"/>
       <c r="AB12" s="15"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC12" s="15"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1139,8 +1157,9 @@
       <c r="Z13" s="12"/>
       <c r="AA13" s="17"/>
       <c r="AB13" s="12"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC13" s="12"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -1169,8 +1188,9 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="14"/>
       <c r="AB14" s="15"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC14" s="15"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -1199,8 +1219,9 @@
       <c r="Z15" s="12"/>
       <c r="AA15" s="17"/>
       <c r="AB15" s="12"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC15" s="12"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -1229,8 +1250,9 @@
       <c r="Z16" s="15"/>
       <c r="AA16" s="14"/>
       <c r="AB16" s="15"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC16" s="15"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -1259,8 +1281,9 @@
       <c r="Z17" s="12"/>
       <c r="AA17" s="17"/>
       <c r="AB17" s="12"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC17" s="12"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1289,8 +1312,9 @@
       <c r="Z18" s="15"/>
       <c r="AA18" s="14"/>
       <c r="AB18" s="15"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC18" s="15"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -1319,8 +1343,9 @@
       <c r="Z19" s="12"/>
       <c r="AA19" s="17"/>
       <c r="AB19" s="12"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC19" s="12"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -1349,8 +1374,9 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="14"/>
       <c r="AB20" s="15"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC20" s="15"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -1379,8 +1405,9 @@
       <c r="Z21" s="12"/>
       <c r="AA21" s="17"/>
       <c r="AB21" s="12"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC21" s="12"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1409,8 +1436,9 @@
       <c r="Z22" s="15"/>
       <c r="AA22" s="14"/>
       <c r="AB22" s="15"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC22" s="15"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -1439,8 +1467,9 @@
       <c r="Z23" s="12"/>
       <c r="AA23" s="17"/>
       <c r="AB23" s="12"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC23" s="12"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -1469,8 +1498,9 @@
       <c r="Z24" s="15"/>
       <c r="AA24" s="14"/>
       <c r="AB24" s="15"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC24" s="15"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -1499,8 +1529,9 @@
       <c r="Z25" s="12"/>
       <c r="AA25" s="17"/>
       <c r="AB25" s="12"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC25" s="12"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -1529,8 +1560,9 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="14"/>
       <c r="AB26" s="15"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC26" s="15"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -1559,8 +1591,9 @@
       <c r="Z27" s="12"/>
       <c r="AA27" s="17"/>
       <c r="AB27" s="12"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC27" s="12"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -1589,8 +1622,9 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="14"/>
       <c r="AB28" s="15"/>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC28" s="15"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -1619,8 +1653,9 @@
       <c r="Z29" s="12"/>
       <c r="AA29" s="17"/>
       <c r="AB29" s="12"/>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC29" s="12"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -1649,8 +1684,9 @@
       <c r="Z30" s="15"/>
       <c r="AA30" s="14"/>
       <c r="AB30" s="15"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC30" s="15"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -1679,8 +1715,9 @@
       <c r="Z31" s="12"/>
       <c r="AA31" s="17"/>
       <c r="AB31" s="12"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC31" s="12"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -1709,6 +1746,7 @@
       <c r="Z32" s="15"/>
       <c r="AA32" s="14"/>
       <c r="AB32" s="15"/>
+      <c r="AC32" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C2 A4:C5 A7:C7">

--- a/excel/M2-S3/M2-S3-MAPI.xlsx
+++ b/excel/M2-S3/M2-S3-MAPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\bulletin-espi\backend\excel\M2-S3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DF56AD-2BD4-4953-B7D6-FED0994E95F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD4159F-F577-44C9-862B-E8FE89459E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33795" yWindow="1995" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>UE SPE – MAPI</t>
   </si>
   <si>
-    <t>Code Apprenant</t>
-  </si>
-  <si>
     <t>Nom</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>Appreciations</t>
+  </si>
+  <si>
+    <t>CodeApprenant</t>
   </si>
 </sst>
 </file>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -675,19 +675,19 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
@@ -705,19 +705,19 @@
         <v>7</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
@@ -731,91 +731,91 @@
     </row>
     <row r="2" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="X2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AA2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="AC2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
